--- a/data/treatments.xlsx
+++ b/data/treatments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcsuh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsuh/Documents/GitHub/temp_rsc_zoops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F873093D-0D01-AB42-A7EC-01048A602EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBDBA6F-CF02-CF44-BD2E-1CAACFCBD478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{0C508788-425F-D84D-A772-A89B6900E58E}"/>
+    <workbookView xWindow="760" yWindow="440" windowWidth="28040" windowHeight="16020" xr2:uid="{0C508788-425F-D84D-A772-A89B6900E58E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -464,7 +455,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +491,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -546,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -569,7 +560,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -615,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -638,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -684,7 +675,7 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
         <v>25</v>
